--- a/Archive/Reports/0203 Time analysis for LBM vs MOL for 150 n and 100 iterations.xlsx
+++ b/Archive/Reports/0203 Time analysis for LBM vs MOL for 150 n and 100 iterations.xlsx
@@ -2369,11 +2369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2130274176"/>
-        <c:axId val="-2130175440"/>
+        <c:axId val="-2056761696"/>
+        <c:axId val="-2044132560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130274176"/>
+        <c:axId val="-2056761696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,12 +2486,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130175440"/>
+        <c:crossAx val="-2044132560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130175440"/>
+        <c:axId val="-2044132560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +2604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130274176"/>
+        <c:crossAx val="-2056761696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4675,11 +4675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2112534304"/>
-        <c:axId val="-2112032336"/>
+        <c:axId val="-2043268896"/>
+        <c:axId val="-2043262992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2112534304"/>
+        <c:axId val="-2043268896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4792,12 +4792,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112032336"/>
+        <c:crossAx val="-2043262992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2112032336"/>
+        <c:axId val="-2043262992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4910,7 +4910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112534304"/>
+        <c:crossAx val="-2043268896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15689,15 +15689,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T153"/>
+  <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -15760,8 +15760,12 @@
         <f>S1/100</f>
         <v>0.63</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W1">
+        <f>T1/J1</f>
+        <v>1.3404255319148937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15824,8 +15828,12 @@
         <f t="shared" ref="T2:T65" si="1">S2/100</f>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W2">
+        <f t="shared" ref="W2:W65" si="2">T2/J2</f>
+        <v>3.8695652173913042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15888,8 +15896,12 @@
         <f t="shared" si="1"/>
         <v>1.39</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <f t="shared" si="2"/>
+        <v>3.3902439024390243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15952,8 +15964,12 @@
         <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>1.8888888888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16016,8 +16032,12 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16080,8 +16100,12 @@
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>1.9540229885057472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16144,8 +16168,12 @@
         <f t="shared" si="1"/>
         <v>2.2200000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>1.9473684210526319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16208,8 +16236,16 @@
         <f t="shared" si="1"/>
         <v>2.81</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>1.9379310344827587</v>
+      </c>
+      <c r="Z8">
+        <f>344/330</f>
+        <v>1.0424242424242425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16272,8 +16308,16 @@
         <f t="shared" si="1"/>
         <v>3.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>1.9060773480662985</v>
+      </c>
+      <c r="Z9">
+        <f>SUM(W1:W150)/150</f>
+        <v>1.193602774229493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16336,8 +16380,12 @@
         <f t="shared" si="1"/>
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>1.8873873873873874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16400,8 +16448,12 @@
         <f t="shared" si="1"/>
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>1.8792452830188682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16464,8 +16516,12 @@
         <f t="shared" si="1"/>
         <v>6.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>1.9265175718849841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16528,8 +16584,12 @@
         <f t="shared" si="1"/>
         <v>6.87</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>1.8770491803278688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16592,8 +16652,12 @@
         <f t="shared" si="1"/>
         <v>7.97</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>1.8976190476190475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16656,8 +16720,12 @@
         <f t="shared" si="1"/>
         <v>8.7200000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>1.8242677824267783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16720,8 +16788,12 @@
         <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>1.7810760667903525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16784,8 +16856,12 @@
         <f t="shared" si="1"/>
         <v>10.78</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>1.7247999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16848,8 +16924,20 @@
         <f t="shared" si="1"/>
         <v>12.13</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>1.7970370370370372</v>
+      </c>
+      <c r="Y18">
+        <f>94*4</f>
+        <v>376</v>
+      </c>
+      <c r="Z18">
+        <f>Y18/Y19</f>
+        <v>1.1124260355029585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16912,8 +17000,16 @@
         <f t="shared" si="1"/>
         <v>13.36</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>1.7765957446808511</v>
+      </c>
+      <c r="Y19">
+        <f>32*9+50</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16976,8 +17072,12 @@
         <f t="shared" si="1"/>
         <v>14.78</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>1.8068459657701712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17040,8 +17140,12 @@
         <f t="shared" si="1"/>
         <v>16.27</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>1.8467650397275821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17104,8 +17208,12 @@
         <f t="shared" si="1"/>
         <v>17.670000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>1.842544316996872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17168,8 +17276,12 @@
         <f t="shared" si="1"/>
         <v>19.29</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>1.797763280521901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17232,8 +17344,12 @@
         <f t="shared" si="1"/>
         <v>20.89</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>1.8356766256590509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17296,8 +17412,12 @@
         <f t="shared" si="1"/>
         <v>22.62</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>1.8197908286403863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17360,8 +17480,12 @@
         <f t="shared" si="1"/>
         <v>24.58</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>1.8086828550404708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17424,8 +17548,12 @@
         <f t="shared" si="1"/>
         <v>27.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>1.7878192534381141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17488,8 +17616,12 @@
         <f t="shared" si="1"/>
         <v>28.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>1.6370921579851174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17552,8 +17684,12 @@
         <f t="shared" si="1"/>
         <v>30.61</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>1.3019991492981708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17616,8 +17752,12 @@
         <f t="shared" si="1"/>
         <v>32.47</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>1.3602848764139086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17680,8 +17820,12 @@
         <f t="shared" si="1"/>
         <v>34.65</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W31">
+        <f t="shared" si="2"/>
+        <v>1.2890625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17744,8 +17888,12 @@
         <f t="shared" si="1"/>
         <v>37.04</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>1.2367278797996661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17808,8 +17956,12 @@
         <f t="shared" si="1"/>
         <v>39.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>0.85036972596781213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17872,8 +18024,12 @@
         <f t="shared" si="1"/>
         <v>41.56</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <f t="shared" si="2"/>
+        <v>1.1538034425319266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17936,8 +18092,12 @@
         <f t="shared" si="1"/>
         <v>44.21</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>1.1295350025549311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -18000,8 +18160,12 @@
         <f t="shared" si="1"/>
         <v>47.12</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>1.1066228276186003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -18064,8 +18228,12 @@
         <f t="shared" si="1"/>
         <v>49.17</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <f t="shared" si="2"/>
+        <v>1.041075587550286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -18128,8 +18296,12 @@
         <f t="shared" si="1"/>
         <v>52.47</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>1.1416449086161879</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -18192,8 +18364,12 @@
         <f t="shared" si="1"/>
         <v>55.26</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W39">
+        <f t="shared" si="2"/>
+        <v>1.1347022587268993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -18256,8 +18432,12 @@
         <f t="shared" si="1"/>
         <v>57.78</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>1.0448462929475588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -18320,8 +18500,12 @@
         <f t="shared" si="1"/>
         <v>64.14</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>1.187997777366179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -18384,8 +18568,12 @@
         <f t="shared" si="1"/>
         <v>64.13</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>0.85976672476203231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18448,8 +18636,12 @@
         <f t="shared" si="1"/>
         <v>66.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>1.1291413116970928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18512,8 +18704,12 @@
         <f t="shared" si="1"/>
         <v>70.98</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>0.93839238498149136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18576,8 +18772,12 @@
         <f t="shared" si="1"/>
         <v>73.81</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>1.1350146086421651</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18640,8 +18840,12 @@
         <f t="shared" si="1"/>
         <v>77.84</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>0.97093675938630408</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18704,8 +18908,12 @@
         <f t="shared" si="1"/>
         <v>83.04</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>1.1793779292714104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18768,8 +18976,12 @@
         <f t="shared" si="1"/>
         <v>84.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>1.1214456550624501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -18832,8 +19044,12 @@
         <f t="shared" si="1"/>
         <v>88.69</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W49">
+        <f t="shared" si="2"/>
+        <v>0.9400105988341283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18896,8 +19112,12 @@
         <f t="shared" si="1"/>
         <v>95.16</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>1.1886085435923057</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18960,8 +19180,12 @@
         <f t="shared" si="1"/>
         <v>99.49</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>1.1726779820839226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -19024,8 +19248,12 @@
         <f t="shared" si="1"/>
         <v>101.33</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>1.1201636082246298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -19088,8 +19316,12 @@
         <f t="shared" si="1"/>
         <v>104.62</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W53">
+        <f t="shared" si="2"/>
+        <v>1.1104978240101901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -19152,8 +19384,12 @@
         <f t="shared" si="1"/>
         <v>107.54</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W54">
+        <f t="shared" si="2"/>
+        <v>1.0364302235929068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -19216,8 +19452,12 @@
         <f t="shared" si="1"/>
         <v>116.12</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W55">
+        <f t="shared" si="2"/>
+        <v>1.1343166943440461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -19280,8 +19520,12 @@
         <f t="shared" si="1"/>
         <v>115.07</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <f t="shared" si="2"/>
+        <v>1.0565604627674225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -19344,8 +19588,12 @@
         <f t="shared" si="1"/>
         <v>121.85</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>1.1455297546300647</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -19408,8 +19656,12 @@
         <f t="shared" si="1"/>
         <v>127.24</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <f t="shared" si="2"/>
+        <v>1.1438331535418915</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -19472,8 +19724,12 @@
         <f t="shared" si="1"/>
         <v>132.59</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>0.94162346424259646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -19536,8 +19792,12 @@
         <f t="shared" si="1"/>
         <v>134.16</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>0.86784397438385408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -19600,8 +19860,12 @@
         <f t="shared" si="1"/>
         <v>139.24</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>1.001726618705036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -19664,8 +19928,12 @@
         <f t="shared" si="1"/>
         <v>141.09</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W62">
+        <f t="shared" si="2"/>
+        <v>1.0309074967119685</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -19728,8 +19996,12 @@
         <f t="shared" si="1"/>
         <v>147.84</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>1.0409068506653525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -19792,8 +20064,12 @@
         <f t="shared" si="1"/>
         <v>150.72</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <f t="shared" si="2"/>
+        <v>1.0353781685786907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -19856,8 +20132,12 @@
         <f t="shared" si="1"/>
         <v>157.21</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W65">
+        <f t="shared" si="2"/>
+        <v>0.93538406616290837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -19886,7 +20166,7 @@
         <v>18546</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J129" si="2">I66/100</f>
+        <f t="shared" ref="J66:J129" si="3">I66/100</f>
         <v>185.46</v>
       </c>
       <c r="K66">
@@ -19917,11 +20197,15 @@
         <v>16101</v>
       </c>
       <c r="T66">
-        <f t="shared" ref="T66:T129" si="3">S66/100</f>
+        <f t="shared" ref="T66:T129" si="4">S66/100</f>
         <v>161.01</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W66">
+        <f t="shared" ref="W66:W129" si="5">T66/J66</f>
+        <v>0.86816564218699444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -19950,7 +20234,7 @@
         <v>14717</v>
       </c>
       <c r="J67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147.16999999999999</v>
       </c>
       <c r="K67">
@@ -19981,11 +20265,15 @@
         <v>16622</v>
       </c>
       <c r="T67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>166.22</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W67">
+        <f t="shared" si="5"/>
+        <v>1.129442141740844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20014,7 +20302,7 @@
         <v>15547</v>
       </c>
       <c r="J68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155.47</v>
       </c>
       <c r="K68">
@@ -20045,11 +20333,15 @@
         <v>17413</v>
       </c>
       <c r="T68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>174.13</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W68">
+        <f t="shared" si="5"/>
+        <v>1.1200231555927189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20078,7 +20370,7 @@
         <v>17490</v>
       </c>
       <c r="J69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>174.9</v>
       </c>
       <c r="K69">
@@ -20109,11 +20401,15 @@
         <v>17528</v>
       </c>
       <c r="T69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>175.28</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W69">
+        <f t="shared" si="5"/>
+        <v>1.0021726700971985</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20142,7 +20438,7 @@
         <v>17546</v>
       </c>
       <c r="J70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>175.46</v>
       </c>
       <c r="K70">
@@ -20173,11 +20469,15 @@
         <v>18314</v>
       </c>
       <c r="T70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>183.14</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W70">
+        <f t="shared" si="5"/>
+        <v>1.0437706599794825</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20206,7 +20506,7 @@
         <v>16927</v>
       </c>
       <c r="J71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>169.27</v>
       </c>
       <c r="K71">
@@ -20237,11 +20537,15 @@
         <v>18630</v>
       </c>
       <c r="T71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>186.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W71">
+        <f t="shared" si="5"/>
+        <v>1.1006084953033615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20270,7 +20574,7 @@
         <v>19959</v>
       </c>
       <c r="J72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>199.59</v>
       </c>
       <c r="K72">
@@ -20301,11 +20605,15 @@
         <v>19307</v>
       </c>
       <c r="T72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>193.07</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W72">
+        <f t="shared" si="5"/>
+        <v>0.96733303271706994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20334,7 +20642,7 @@
         <v>18871</v>
       </c>
       <c r="J73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188.71</v>
       </c>
       <c r="K73">
@@ -20365,11 +20673,15 @@
         <v>19722</v>
       </c>
       <c r="T73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197.22</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W73">
+        <f t="shared" si="5"/>
+        <v>1.0450956494091463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20398,7 +20710,7 @@
         <v>19848</v>
       </c>
       <c r="J74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>198.48</v>
       </c>
       <c r="K74">
@@ -20429,11 +20741,15 @@
         <v>20611</v>
       </c>
       <c r="T74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>206.11</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W74">
+        <f t="shared" si="5"/>
+        <v>1.038442160419186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20462,7 +20778,7 @@
         <v>21231</v>
       </c>
       <c r="J75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>212.31</v>
       </c>
       <c r="K75">
@@ -20493,11 +20809,15 @@
         <v>20872</v>
       </c>
       <c r="T75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208.72</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W75">
+        <f t="shared" si="5"/>
+        <v>0.98309076350619373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20526,7 +20846,7 @@
         <v>19222</v>
       </c>
       <c r="J76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192.22</v>
       </c>
       <c r="K76">
@@ -20557,11 +20877,15 @@
         <v>21749</v>
       </c>
       <c r="T76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>217.49</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W76">
+        <f t="shared" si="5"/>
+        <v>1.1314639475600874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20590,7 +20914,7 @@
         <v>25155</v>
       </c>
       <c r="J77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>251.55</v>
       </c>
       <c r="K77">
@@ -20621,11 +20945,15 @@
         <v>22508</v>
       </c>
       <c r="T77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>225.08</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W77">
+        <f t="shared" si="5"/>
+        <v>0.89477241105148086</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20654,7 +20982,7 @@
         <v>21423</v>
       </c>
       <c r="J78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>214.23</v>
       </c>
       <c r="K78">
@@ -20685,11 +21013,15 @@
         <v>22457</v>
       </c>
       <c r="T78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>224.57</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W78">
+        <f t="shared" si="5"/>
+        <v>1.0482658824627737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20718,7 +21050,7 @@
         <v>21516</v>
       </c>
       <c r="J79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>215.16</v>
       </c>
       <c r="K79">
@@ -20749,11 +21081,15 @@
         <v>23400</v>
       </c>
       <c r="T79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W79">
+        <f t="shared" si="5"/>
+        <v>1.0875627440044617</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20782,7 +21118,7 @@
         <v>25209</v>
       </c>
       <c r="J80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>252.09</v>
       </c>
       <c r="K80">
@@ -20813,11 +21149,15 @@
         <v>24008</v>
       </c>
       <c r="T80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240.08</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W80">
+        <f t="shared" si="5"/>
+        <v>0.95235828473957718</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20846,7 +21186,7 @@
         <v>24049</v>
       </c>
       <c r="J81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240.49</v>
       </c>
       <c r="K81">
@@ -20877,11 +21217,15 @@
         <v>24697</v>
       </c>
       <c r="T81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246.97</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W81">
+        <f t="shared" si="5"/>
+        <v>1.02694498731756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20910,7 +21254,7 @@
         <v>23490</v>
       </c>
       <c r="J82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>234.9</v>
       </c>
       <c r="K82">
@@ -20941,11 +21285,15 @@
         <v>24940</v>
       </c>
       <c r="T82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>249.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W82">
+        <f t="shared" si="5"/>
+        <v>1.0617283950617284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20974,7 +21322,7 @@
         <v>22793</v>
       </c>
       <c r="J83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>227.93</v>
       </c>
       <c r="K83">
@@ -21005,11 +21353,15 @@
         <v>25860</v>
       </c>
       <c r="T83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>258.60000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W83">
+        <f t="shared" si="5"/>
+        <v>1.134558855789058</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -21038,7 +21390,7 @@
         <v>24431</v>
       </c>
       <c r="J84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>244.31</v>
       </c>
       <c r="K84">
@@ -21069,11 +21421,15 @@
         <v>26101</v>
       </c>
       <c r="T84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>261.01</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W84">
+        <f t="shared" si="5"/>
+        <v>1.0683557774958046</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -21102,7 +21458,7 @@
         <v>25454</v>
       </c>
       <c r="J85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>254.54</v>
       </c>
       <c r="K85">
@@ -21133,11 +21489,15 @@
         <v>26802</v>
       </c>
       <c r="T85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>268.02</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W85">
+        <f t="shared" si="5"/>
+        <v>1.0529582776773787</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -21166,7 +21526,7 @@
         <v>26399</v>
       </c>
       <c r="J86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>263.99</v>
       </c>
       <c r="K86">
@@ -21197,11 +21557,15 @@
         <v>27666</v>
       </c>
       <c r="T86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>276.66000000000003</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W86">
+        <f t="shared" si="5"/>
+        <v>1.0479942422061441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -21230,7 +21594,7 @@
         <v>26588</v>
       </c>
       <c r="J87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>265.88</v>
       </c>
       <c r="K87">
@@ -21261,11 +21625,15 @@
         <v>27866</v>
       </c>
       <c r="T87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>278.66000000000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W87">
+        <f t="shared" si="5"/>
+        <v>1.0480667970513013</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -21294,7 +21662,7 @@
         <v>26710</v>
       </c>
       <c r="J88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>267.10000000000002</v>
       </c>
       <c r="K88">
@@ -21325,11 +21693,15 @@
         <v>28536</v>
       </c>
       <c r="T88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>285.36</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W88">
+        <f t="shared" si="5"/>
+        <v>1.0683639086484462</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -21358,7 +21730,7 @@
         <v>27015</v>
       </c>
       <c r="J89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270.14999999999998</v>
       </c>
       <c r="K89">
@@ -21389,11 +21761,15 @@
         <v>29847</v>
       </c>
       <c r="T89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>298.47000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W89">
+        <f t="shared" si="5"/>
+        <v>1.1048306496390896</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -21422,7 +21798,7 @@
         <v>35361</v>
       </c>
       <c r="J90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>353.61</v>
       </c>
       <c r="K90">
@@ -21453,11 +21829,15 @@
         <v>30156</v>
       </c>
       <c r="T90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>301.56</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W90">
+        <f t="shared" si="5"/>
+        <v>0.85280393654025621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -21486,7 +21866,7 @@
         <v>31348</v>
       </c>
       <c r="J91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>313.48</v>
       </c>
       <c r="K91">
@@ -21517,11 +21897,15 @@
         <v>30766</v>
       </c>
       <c r="T91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>307.66000000000003</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W91">
+        <f t="shared" si="5"/>
+        <v>0.98143422227893329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -21550,7 +21934,7 @@
         <v>30133</v>
       </c>
       <c r="J92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>301.33</v>
       </c>
       <c r="K92">
@@ -21581,11 +21965,15 @@
         <v>31815</v>
       </c>
       <c r="T92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>318.14999999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W92">
+        <f t="shared" si="5"/>
+        <v>1.05581920153984</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -21614,7 +22002,7 @@
         <v>30444</v>
       </c>
       <c r="J93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>304.44</v>
       </c>
       <c r="K93">
@@ -21645,11 +22033,15 @@
         <v>31507</v>
       </c>
       <c r="T93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>315.07</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W93">
+        <f t="shared" si="5"/>
+        <v>1.034916568125082</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -21678,7 +22070,7 @@
         <v>30568</v>
       </c>
       <c r="J94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>305.68</v>
       </c>
       <c r="K94">
@@ -21709,11 +22101,15 @@
         <v>32316</v>
       </c>
       <c r="T94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>323.16000000000003</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W94">
+        <f t="shared" si="5"/>
+        <v>1.0571839832504581</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -21742,7 +22138,7 @@
         <v>31592</v>
       </c>
       <c r="J95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>315.92</v>
       </c>
       <c r="K95">
@@ -21773,11 +22169,15 @@
         <v>33710</v>
       </c>
       <c r="T95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>337.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W95">
+        <f t="shared" si="5"/>
+        <v>1.0670422891871361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -21806,7 +22206,7 @@
         <v>33340</v>
       </c>
       <c r="J96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>333.4</v>
       </c>
       <c r="K96">
@@ -21837,11 +22237,15 @@
         <v>34133</v>
       </c>
       <c r="T96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>341.33</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W96">
+        <f t="shared" si="5"/>
+        <v>1.0237852429514098</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -21870,7 +22274,7 @@
         <v>33880</v>
       </c>
       <c r="J97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>338.8</v>
       </c>
       <c r="K97">
@@ -21901,11 +22305,15 @@
         <v>34482</v>
       </c>
       <c r="T97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>344.82</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W97">
+        <f t="shared" si="5"/>
+        <v>1.0177685950413222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -21934,7 +22342,7 @@
         <v>38689</v>
       </c>
       <c r="J98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>386.89</v>
       </c>
       <c r="K98">
@@ -21965,11 +22373,15 @@
         <v>36099</v>
       </c>
       <c r="T98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>360.99</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W98">
+        <f t="shared" si="5"/>
+        <v>0.93305590736385025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -21998,7 +22410,7 @@
         <v>36840</v>
       </c>
       <c r="J99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>368.4</v>
       </c>
       <c r="K99">
@@ -22029,11 +22441,15 @@
         <v>35846</v>
       </c>
       <c r="T99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>358.46</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W99">
+        <f t="shared" si="5"/>
+        <v>0.97301845819761135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -22062,7 +22478,7 @@
         <v>36639</v>
       </c>
       <c r="J100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>366.39</v>
       </c>
       <c r="K100">
@@ -22093,11 +22509,15 @@
         <v>36334</v>
       </c>
       <c r="T100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>363.34</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W100">
+        <f t="shared" si="5"/>
+        <v>0.99167553699609701</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -22126,7 +22546,7 @@
         <v>37021</v>
       </c>
       <c r="J101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>370.21</v>
       </c>
       <c r="K101">
@@ -22157,11 +22577,15 @@
         <v>38038</v>
       </c>
       <c r="T101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>380.38</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W101">
+        <f t="shared" si="5"/>
+        <v>1.0274708948974907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -22190,7 +22614,7 @@
         <v>41219</v>
       </c>
       <c r="J102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>412.19</v>
       </c>
       <c r="K102">
@@ -22221,11 +22645,15 @@
         <v>37786</v>
       </c>
       <c r="T102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>377.86</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W102">
+        <f t="shared" si="5"/>
+        <v>0.91671316625827903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -22254,7 +22682,7 @@
         <v>39347</v>
       </c>
       <c r="J103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>393.47</v>
       </c>
       <c r="K103">
@@ -22285,11 +22713,15 @@
         <v>38904</v>
       </c>
       <c r="T103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.04</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W103">
+        <f t="shared" si="5"/>
+        <v>0.98874120009149358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -22318,7 +22750,7 @@
         <v>39104</v>
       </c>
       <c r="J104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>391.04</v>
       </c>
       <c r="K104">
@@ -22349,11 +22781,15 @@
         <v>39478</v>
       </c>
       <c r="T104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>394.78</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W104">
+        <f t="shared" si="5"/>
+        <v>1.0095642389525368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -22382,7 +22818,7 @@
         <v>39727</v>
       </c>
       <c r="J105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>397.27</v>
       </c>
       <c r="K105">
@@ -22413,11 +22849,15 @@
         <v>40283</v>
       </c>
       <c r="T105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>402.83</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W105">
+        <f t="shared" si="5"/>
+        <v>1.0139955194200418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -22446,7 +22886,7 @@
         <v>40613</v>
       </c>
       <c r="J106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>406.13</v>
       </c>
       <c r="K106">
@@ -22477,11 +22917,15 @@
         <v>41428</v>
       </c>
       <c r="T106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>414.28</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W106">
+        <f t="shared" si="5"/>
+        <v>1.0200674660822888</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -22510,7 +22954,7 @@
         <v>41267</v>
       </c>
       <c r="J107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>412.67</v>
       </c>
       <c r="K107">
@@ -22541,11 +22985,15 @@
         <v>44005</v>
       </c>
       <c r="T107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>440.05</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W107">
+        <f t="shared" si="5"/>
+        <v>1.066348413986963</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -22574,7 +23022,7 @@
         <v>42556</v>
       </c>
       <c r="J108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>425.56</v>
       </c>
       <c r="K108">
@@ -22605,11 +23053,15 @@
         <v>44989</v>
       </c>
       <c r="T108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>449.89</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W108">
+        <f t="shared" si="5"/>
+        <v>1.0571717266660401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -22638,7 +23090,7 @@
         <v>49300</v>
       </c>
       <c r="J109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>493</v>
       </c>
       <c r="K109">
@@ -22669,11 +23121,15 @@
         <v>46237</v>
       </c>
       <c r="T109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>462.37</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W109">
+        <f t="shared" si="5"/>
+        <v>0.93787018255578092</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -22702,7 +23158,7 @@
         <v>47616</v>
       </c>
       <c r="J110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>476.16</v>
       </c>
       <c r="K110">
@@ -22733,11 +23189,15 @@
         <v>46071</v>
       </c>
       <c r="T110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>460.71</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W110">
+        <f t="shared" si="5"/>
+        <v>0.96755292338709664</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -22766,7 +23226,7 @@
         <v>45932</v>
       </c>
       <c r="J111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>459.32</v>
       </c>
       <c r="K111">
@@ -22797,11 +23257,15 @@
         <v>46089</v>
       </c>
       <c r="T111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>460.89</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W111">
+        <f t="shared" si="5"/>
+        <v>1.0034180963162935</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -22830,7 +23294,7 @@
         <v>45543</v>
       </c>
       <c r="J112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>455.43</v>
       </c>
       <c r="K112">
@@ -22861,11 +23325,15 @@
         <v>45896</v>
       </c>
       <c r="T112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>458.96</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W112">
+        <f t="shared" si="5"/>
+        <v>1.0077509167160705</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -22894,7 +23362,7 @@
         <v>46572</v>
       </c>
       <c r="J113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>465.72</v>
       </c>
       <c r="K113">
@@ -22925,11 +23393,15 @@
         <v>48147</v>
       </c>
       <c r="T113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>481.47</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W113">
+        <f t="shared" si="5"/>
+        <v>1.0338186034527184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -22958,7 +23430,7 @@
         <v>46944</v>
       </c>
       <c r="J114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>469.44</v>
       </c>
       <c r="K114">
@@ -22989,11 +23461,15 @@
         <v>47435</v>
       </c>
       <c r="T114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>474.35</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W114">
+        <f t="shared" si="5"/>
+        <v>1.0104592706203137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -23022,7 +23498,7 @@
         <v>47733</v>
       </c>
       <c r="J115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>477.33</v>
       </c>
       <c r="K115">
@@ -23053,11 +23529,15 @@
         <v>48959</v>
       </c>
       <c r="T115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>489.59</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W115">
+        <f t="shared" si="5"/>
+        <v>1.0256845369031906</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -23086,7 +23566,7 @@
         <v>49211</v>
       </c>
       <c r="J116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>492.11</v>
       </c>
       <c r="K116">
@@ -23117,11 +23597,15 @@
         <v>49711</v>
       </c>
       <c r="T116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>497.11</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W116">
+        <f t="shared" si="5"/>
+        <v>1.0101603300075186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -23150,7 +23634,7 @@
         <v>56205</v>
       </c>
       <c r="J117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>562.04999999999995</v>
       </c>
       <c r="K117">
@@ -23181,11 +23665,15 @@
         <v>49530</v>
       </c>
       <c r="T117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>495.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W117">
+        <f t="shared" si="5"/>
+        <v>0.88123832399252744</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -23214,7 +23702,7 @@
         <v>58951</v>
       </c>
       <c r="J118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>589.51</v>
       </c>
       <c r="K118">
@@ -23245,11 +23733,15 @@
         <v>50690</v>
       </c>
       <c r="T118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>506.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W118">
+        <f t="shared" si="5"/>
+        <v>0.85986666892843211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -23278,7 +23770,7 @@
         <v>57843</v>
       </c>
       <c r="J119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>578.42999999999995</v>
       </c>
       <c r="K119">
@@ -23309,11 +23801,15 @@
         <v>52499</v>
       </c>
       <c r="T119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>524.99</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W119">
+        <f t="shared" si="5"/>
+        <v>0.90761198416403033</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -23342,7 +23838,7 @@
         <v>55579</v>
       </c>
       <c r="J120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>555.79</v>
       </c>
       <c r="K120">
@@ -23373,11 +23869,15 @@
         <v>52741</v>
       </c>
       <c r="T120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>527.41</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W120">
+        <f t="shared" si="5"/>
+        <v>0.94893754835459432</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -23406,7 +23906,7 @@
         <v>57684</v>
       </c>
       <c r="J121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>576.84</v>
       </c>
       <c r="K121">
@@ -23437,11 +23937,15 @@
         <v>53538</v>
       </c>
       <c r="T121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>535.38</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W121">
+        <f t="shared" si="5"/>
+        <v>0.92812565009361347</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -23470,7 +23974,7 @@
         <v>59215</v>
       </c>
       <c r="J122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>592.15</v>
       </c>
       <c r="K122">
@@ -23501,11 +24005,15 @@
         <v>55211</v>
       </c>
       <c r="T122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>552.11</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W122">
+        <f t="shared" si="5"/>
+        <v>0.9323819978046104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -23534,7 +24042,7 @@
         <v>60001</v>
       </c>
       <c r="J123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600.01</v>
       </c>
       <c r="K123">
@@ -23565,11 +24073,15 @@
         <v>55240</v>
       </c>
       <c r="T123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>552.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W123">
+        <f t="shared" si="5"/>
+        <v>0.92065132247795867</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -23598,7 +24110,7 @@
         <v>60898</v>
       </c>
       <c r="J124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>608.98</v>
       </c>
       <c r="K124">
@@ -23629,11 +24141,15 @@
         <v>55755</v>
       </c>
       <c r="T124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>557.54999999999995</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W124">
+        <f t="shared" si="5"/>
+        <v>0.91554730861440436</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -23662,7 +24178,7 @@
         <v>61239</v>
       </c>
       <c r="J125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>612.39</v>
       </c>
       <c r="K125">
@@ -23693,11 +24209,15 @@
         <v>57443</v>
       </c>
       <c r="T125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>574.42999999999995</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W125">
+        <f t="shared" si="5"/>
+        <v>0.93801335750093884</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -23726,7 +24246,7 @@
         <v>83096</v>
       </c>
       <c r="J126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>830.96</v>
       </c>
       <c r="K126">
@@ -23757,11 +24277,15 @@
         <v>58529</v>
       </c>
       <c r="T126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>585.29</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W126">
+        <f t="shared" si="5"/>
+        <v>0.70435400019254835</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -23790,7 +24314,7 @@
         <v>65346</v>
       </c>
       <c r="J127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>653.46</v>
       </c>
       <c r="K127">
@@ -23821,11 +24345,15 @@
         <v>58644</v>
       </c>
       <c r="T127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>586.44000000000005</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W127">
+        <f t="shared" si="5"/>
+        <v>0.89743825176751446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -23854,7 +24382,7 @@
         <v>73356</v>
       </c>
       <c r="J128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>733.56</v>
       </c>
       <c r="K128">
@@ -23885,11 +24413,15 @@
         <v>60697</v>
       </c>
       <c r="T128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>606.97</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W128">
+        <f t="shared" si="5"/>
+        <v>0.82743061235618087</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -23918,7 +24450,7 @@
         <v>71487</v>
       </c>
       <c r="J129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>714.87</v>
       </c>
       <c r="K129">
@@ -23949,11 +24481,15 @@
         <v>60245</v>
       </c>
       <c r="T129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>602.45000000000005</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W129">
+        <f t="shared" si="5"/>
+        <v>0.84274063815798683</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -23982,7 +24518,7 @@
         <v>66016</v>
       </c>
       <c r="J130">
-        <f t="shared" ref="J130:J150" si="4">I130/100</f>
+        <f t="shared" ref="J130:J150" si="6">I130/100</f>
         <v>660.16</v>
       </c>
       <c r="K130">
@@ -24013,11 +24549,15 @@
         <v>61252</v>
       </c>
       <c r="T130">
-        <f t="shared" ref="T130:T150" si="5">S130/100</f>
+        <f t="shared" ref="T130:T150" si="7">S130/100</f>
         <v>612.52</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W130">
+        <f t="shared" ref="W130:W150" si="8">T130/J130</f>
+        <v>0.92783567619970919</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -24046,7 +24586,7 @@
         <v>70925</v>
       </c>
       <c r="J131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>709.25</v>
       </c>
       <c r="K131">
@@ -24077,11 +24617,15 @@
         <v>63492</v>
       </c>
       <c r="T131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>634.91999999999996</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W131">
+        <f t="shared" si="8"/>
+        <v>0.8951991540359534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -24110,7 +24654,7 @@
         <v>89395</v>
       </c>
       <c r="J132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>893.95</v>
       </c>
       <c r="K132">
@@ -24141,11 +24685,15 @@
         <v>64442</v>
       </c>
       <c r="T132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>644.41999999999996</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W132">
+        <f t="shared" si="8"/>
+        <v>0.72086805749762284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -24174,7 +24722,7 @@
         <v>80540</v>
       </c>
       <c r="J133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>805.4</v>
       </c>
       <c r="K133">
@@ -24205,11 +24753,15 @@
         <v>66007</v>
       </c>
       <c r="T133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>660.07</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W133">
+        <f t="shared" si="8"/>
+        <v>0.81955550037248581</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -24238,7 +24790,7 @@
         <v>78398</v>
       </c>
       <c r="J134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>783.98</v>
       </c>
       <c r="K134">
@@ -24269,11 +24821,15 @@
         <v>66615</v>
       </c>
       <c r="T134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>666.15</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W134">
+        <f t="shared" si="8"/>
+        <v>0.84970279854077901</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -24302,7 +24858,7 @@
         <v>70547</v>
       </c>
       <c r="J135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>705.47</v>
       </c>
       <c r="K135">
@@ -24333,11 +24889,15 @@
         <v>66007</v>
       </c>
       <c r="T135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>660.07</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W135">
+        <f t="shared" si="8"/>
+        <v>0.93564573971961962</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -24366,7 +24926,7 @@
         <v>67159</v>
       </c>
       <c r="J136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>671.59</v>
       </c>
       <c r="K136">
@@ -24397,11 +24957,15 @@
         <v>67246</v>
       </c>
       <c r="T136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>672.46</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W136">
+        <f t="shared" si="8"/>
+        <v>1.0012954332256288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -24430,7 +24994,7 @@
         <v>68334</v>
       </c>
       <c r="J137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>683.34</v>
       </c>
       <c r="K137">
@@ -24461,11 +25025,15 @@
         <v>69171</v>
       </c>
       <c r="T137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>691.71</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W137">
+        <f t="shared" si="8"/>
+        <v>1.0122486609886734</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -24494,7 +25062,7 @@
         <v>67552</v>
       </c>
       <c r="J138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>675.52</v>
       </c>
       <c r="K138">
@@ -24525,11 +25093,15 @@
         <v>69267</v>
       </c>
       <c r="T138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>692.67</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W138">
+        <f t="shared" si="8"/>
+        <v>1.0253878493604927</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -24558,7 +25130,7 @@
         <v>68812</v>
       </c>
       <c r="J139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>688.12</v>
       </c>
       <c r="K139">
@@ -24589,11 +25161,15 @@
         <v>70913</v>
       </c>
       <c r="T139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>709.13</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W139">
+        <f t="shared" si="8"/>
+        <v>1.0305324652676859</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -24622,7 +25198,7 @@
         <v>72090</v>
       </c>
       <c r="J140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720.9</v>
       </c>
       <c r="K140">
@@ -24653,11 +25229,15 @@
         <v>72385</v>
       </c>
       <c r="T140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>723.85</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W140">
+        <f t="shared" si="8"/>
+        <v>1.0040921070883619</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -24686,7 +25266,7 @@
         <v>71592</v>
       </c>
       <c r="J141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>715.92</v>
       </c>
       <c r="K141">
@@ -24717,11 +25297,15 @@
         <v>72941</v>
       </c>
       <c r="T141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>729.41</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W141">
+        <f t="shared" si="8"/>
+        <v>1.0188428874734607</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -24750,7 +25334,7 @@
         <v>71700</v>
       </c>
       <c r="J142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>717</v>
       </c>
       <c r="K142">
@@ -24781,11 +25365,15 @@
         <v>76029</v>
       </c>
       <c r="T142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>760.29</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W142">
+        <f t="shared" si="8"/>
+        <v>1.0603765690376568</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -24814,7 +25402,7 @@
         <v>73607</v>
       </c>
       <c r="J143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>736.07</v>
       </c>
       <c r="K143">
@@ -24845,11 +25433,15 @@
         <v>78167</v>
       </c>
       <c r="T143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>781.67</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W143">
+        <f t="shared" si="8"/>
+        <v>1.0619506296955452</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -24878,7 +25470,7 @@
         <v>75676</v>
       </c>
       <c r="J144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>756.76</v>
       </c>
       <c r="K144">
@@ -24909,11 +25501,15 @@
         <v>76184</v>
       </c>
       <c r="T144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>761.84</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W144">
+        <f t="shared" si="8"/>
+        <v>1.0067128283735927</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -24942,7 +25538,7 @@
         <v>74880</v>
       </c>
       <c r="J145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>748.8</v>
       </c>
       <c r="K145">
@@ -24973,11 +25569,15 @@
         <v>77652</v>
       </c>
       <c r="T145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>776.52</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W145">
+        <f t="shared" si="8"/>
+        <v>1.0370192307692307</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -25006,7 +25606,7 @@
         <v>76555</v>
       </c>
       <c r="J146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>765.55</v>
       </c>
       <c r="K146">
@@ -25037,11 +25637,15 @@
         <v>80212</v>
       </c>
       <c r="T146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>802.12</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W146">
+        <f t="shared" si="8"/>
+        <v>1.0477695774279929</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -25070,7 +25674,7 @@
         <v>77407</v>
       </c>
       <c r="J147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>774.07</v>
       </c>
       <c r="K147">
@@ -25101,11 +25705,15 @@
         <v>79210</v>
       </c>
       <c r="T147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>792.1</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W147">
+        <f t="shared" si="8"/>
+        <v>1.0232924670895396</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -25134,7 +25742,7 @@
         <v>84354</v>
       </c>
       <c r="J148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>843.54</v>
       </c>
       <c r="K148">
@@ -25165,11 +25773,15 @@
         <v>79552</v>
       </c>
       <c r="T148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>795.52</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W148">
+        <f t="shared" si="8"/>
+        <v>0.94307323896910644</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -25198,7 +25810,7 @@
         <v>80382</v>
       </c>
       <c r="J149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>803.82</v>
       </c>
       <c r="K149">
@@ -25229,11 +25841,15 @@
         <v>83653</v>
       </c>
       <c r="T149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>836.53</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W149">
+        <f t="shared" si="8"/>
+        <v>1.0406931900176655</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -25262,7 +25878,7 @@
         <v>82179</v>
       </c>
       <c r="J150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>821.79</v>
       </c>
       <c r="K150">
@@ -25293,11 +25909,15 @@
         <v>82586</v>
       </c>
       <c r="T150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>825.86</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W150">
+        <f t="shared" si="8"/>
+        <v>1.0049526034631719</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>12</v>
       </c>
